--- a/Inputs/ertac_rpo_listing.xlsx
+++ b/Inputs/ertac_rpo_listing.xlsx
@@ -12,7 +12,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="ertac_rpo_listing" localSheetId="0">Sheet1!$A$2:$B$5</definedName>
+    <definedName name="ertac_rpo_listing" localSheetId="0">Sheet1!$A$1:$B$4</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>MANE-VU+VA</t>
   </si>
@@ -56,12 +56,6 @@
   </si>
   <si>
     <t>AR,IA,KS,LA,MO,OK,NE,TX</t>
-  </si>
-  <si>
-    <t>RPO</t>
-  </si>
-  <si>
-    <t>States</t>
   </si>
 </sst>
 </file>
@@ -397,10 +391,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -411,41 +405,33 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
         <v>7</v>
       </c>
     </row>
